--- a/data/scheduling_DNN/predict/0.9/result4.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result4.xlsx
@@ -570,10 +570,10 @@
         <v>0.9620230197906494</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.4003972113132477</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1488588452339172</v>
+        <v>0.3154235780239105</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8921239376068115</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.8677060008049011</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1834114193916321</v>
+        <v>0.000596235622651875</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.873668909072876</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8743781447410583</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2080515623092651</v>
+        <v>5.030152578910929e-07</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8910341262817383</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.8727745413780212</v>
       </c>
       <c r="W5" t="n">
-        <v>0.007176026701927185</v>
+        <v>0.0003334124339744449</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.883497953414917</v>
       </c>
       <c r="V6" t="n">
-        <v>0.653493344783783</v>
+        <v>0.8808069825172424</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05290212109684944</v>
+        <v>7.241324510687264e-06</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8729598522186279</v>
       </c>
       <c r="V7" t="n">
-        <v>0.653571605682373</v>
+        <v>0.4018831551074982</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04813120141625404</v>
+        <v>0.2219132483005524</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8907849788665771</v>
       </c>
       <c r="V8" t="n">
-        <v>0.524641752243042</v>
+        <v>0.5295001864433289</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1340608596801758</v>
+        <v>0.1305267065763474</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8691999912261963</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.4002674520015717</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2406202256679535</v>
+        <v>0.2198977321386337</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8802900314331055</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.4001101553440094</v>
       </c>
       <c r="W10" t="n">
-        <v>0.25936159491539</v>
+        <v>0.2305727154016495</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8647279739379883</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.3992960453033447</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1628958284854889</v>
+        <v>0.2166268825531006</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9151389598846436</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.5154497623443604</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1051473319530487</v>
+        <v>0.1597514599561691</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8867030143737793</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.4017400443553925</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1312552243471146</v>
+        <v>0.2351890802383423</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8881669044494629</v>
       </c>
       <c r="V14" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.8735013604164124</v>
       </c>
       <c r="W14" t="n">
-        <v>0.03241747245192528</v>
+        <v>0.0002150781801901758</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9493319988250732</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.4017251431941986</v>
       </c>
       <c r="W15" t="n">
-        <v>0.358282595872879</v>
+        <v>0.2998732328414917</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9293711185455322</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.4001052379608154</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2192690074443817</v>
+        <v>0.2801223695278168</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8806600570678711</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5204883813858032</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1528562009334564</v>
+        <v>0.1297236382961273</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8761510848999023</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.5292915105819702</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1234423443675041</v>
+        <v>0.1203115656971931</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8594691753387451</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.5271512269973755</v>
       </c>
       <c r="W19" t="n">
-        <v>0.258038341999054</v>
+        <v>0.1104352176189423</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9256541728973389</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.5290096998214722</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1781222820281982</v>
+        <v>0.1573268324136734</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8782110214233398</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.5205263495445251</v>
       </c>
       <c r="W21" t="n">
-        <v>0.212116464972496</v>
+        <v>0.1279383301734924</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5212700366973877</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.8700819611549377</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03166740015149117</v>
+        <v>0.1216697618365288</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5299160480499268</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.4002478718757629</v>
       </c>
       <c r="W23" t="n">
-        <v>3.06231013382785e-05</v>
+        <v>0.01681383512914181</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5251100063323975</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.4001186490058899</v>
       </c>
       <c r="W24" t="n">
-        <v>0.02147117257118225</v>
+        <v>0.01562283933162689</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.7349710464477539</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.4009004235267639</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1469109058380127</v>
+        <v>0.1116031780838966</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5272889137268066</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.5304467082023621</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01587195694446564</v>
+        <v>9.97166625893442e-06</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5205950736999512</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8632273077964783</v>
       </c>
       <c r="W27" t="n">
-        <v>0.003488957649096847</v>
+        <v>0.1173968464136124</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5179450511932373</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.3993469476699829</v>
       </c>
       <c r="W28" t="n">
-        <v>0.005286628380417824</v>
+        <v>0.0140655105933547</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5471930503845215</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.526110053062439</v>
       </c>
       <c r="W29" t="n">
-        <v>0.007352558895945549</v>
+        <v>0.0004444927617441863</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5968430042266846</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.8759100437164307</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01139453426003456</v>
+        <v>0.07787841558456421</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5157961845397949</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.5460876822471619</v>
       </c>
       <c r="W31" t="n">
-        <v>9.743440750753507e-05</v>
+        <v>0.0009175748564302921</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5430161952972412</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.4019158780574799</v>
       </c>
       <c r="W32" t="n">
-        <v>0.03667193278670311</v>
+        <v>0.01990929991006851</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5233700275421143</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.8728486299514771</v>
       </c>
       <c r="W33" t="n">
-        <v>0.002730582375079393</v>
+        <v>0.1221352964639664</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5274989604949951</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.8892338871955872</v>
       </c>
       <c r="W34" t="n">
-        <v>0.07676661759614944</v>
+        <v>0.1308521628379822</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5812101364135742</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.8608270883560181</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01062576379626989</v>
+        <v>0.07818564027547836</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5146191120147705</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.8726205825805664</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0005644111079163849</v>
+        <v>0.1281650513410568</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5166120529174805</v>
       </c>
       <c r="V37" t="n">
-        <v>0.655465304851532</v>
+        <v>0.4001047313213348</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01928022503852844</v>
+        <v>0.01357395574450493</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5149469375610352</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.566875159740448</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0052049420773983</v>
+        <v>0.002696540206670761</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.513206958770752</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.5352927446365356</v>
       </c>
       <c r="W39" t="n">
-        <v>0.00915219821035862</v>
+        <v>0.0004877819446846843</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5150690078735352</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.8918257355690002</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0001034382512443699</v>
+        <v>0.1419456303119659</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5304489135742188</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.3991738855838776</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03228069096803665</v>
+        <v>0.01723313331604004</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3964581489562988</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.4007497727870941</v>
       </c>
       <c r="W42" t="n">
-        <v>0.3354005813598633</v>
+        <v>1.841803532443009e-05</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4007949829101562</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.8797152042388916</v>
       </c>
       <c r="W43" t="n">
-        <v>0.002505308715626597</v>
+        <v>0.2293645739555359</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3881270885467529</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.8799672722816467</v>
       </c>
       <c r="W44" t="n">
-        <v>0.000255849416134879</v>
+        <v>0.2419067621231079</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3887898921966553</v>
       </c>
       <c r="V45" t="n">
-        <v>0.654336154460907</v>
+        <v>0.5679170489311218</v>
       </c>
       <c r="W45" t="n">
-        <v>0.07051482051610947</v>
+        <v>0.03208654001355171</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3878741264343262</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.5141497254371643</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0008854928310029209</v>
+        <v>0.01594552770256996</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4088680744171143</v>
       </c>
       <c r="V47" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8654252886772156</v>
       </c>
       <c r="W47" t="n">
-        <v>0.153342068195343</v>
+        <v>0.2084444910287857</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4046680927276611</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.8709336519241333</v>
       </c>
       <c r="W48" t="n">
-        <v>0.02942375093698502</v>
+        <v>0.2174035757780075</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.387808084487915</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8858240246772766</v>
       </c>
       <c r="W49" t="n">
-        <v>7.925751560833305e-05</v>
+        <v>0.2480198740959167</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3892550468444824</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.5286023020744324</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01337938942015171</v>
+        <v>0.0194176584482193</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3886580467224121</v>
       </c>
       <c r="V51" t="n">
-        <v>0.652911365032196</v>
+        <v>0.5154619812965393</v>
       </c>
       <c r="W51" t="n">
-        <v>0.06982981413602829</v>
+        <v>0.01607923768460751</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4054319858551025</v>
       </c>
       <c r="V52" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.530006468296051</v>
       </c>
       <c r="W52" t="n">
-        <v>0.3251225650310516</v>
+        <v>0.0155188012868166</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3891010284423828</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8687174916267395</v>
       </c>
       <c r="W53" t="n">
-        <v>0.1706647127866745</v>
+        <v>0.2300319522619247</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3884351253509521</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.872715175151825</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0008521955460309982</v>
+        <v>0.2345271706581116</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.39394211769104</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.5212730169296265</v>
       </c>
       <c r="W55" t="n">
-        <v>0.08925151824951172</v>
+        <v>0.01621315814554691</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3884658813476562</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.399328887462616</v>
       </c>
       <c r="W56" t="n">
-        <v>0.001421948312781751</v>
+        <v>0.0001180049002869055</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3881950378417969</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.8778641819953918</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0136657552793622</v>
+        <v>0.2397758662700653</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3889200687408447</v>
       </c>
       <c r="V58" t="n">
-        <v>0.417632520198822</v>
+        <v>0.524316132068634</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0008244048804044724</v>
+        <v>0.0183320939540863</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4091980457305908</v>
       </c>
       <c r="V59" t="n">
-        <v>0.490329772233963</v>
+        <v>0.5292377471923828</v>
       </c>
       <c r="W59" t="n">
-        <v>0.006582356989383698</v>
+        <v>0.01440952997654676</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3935058116912842</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.4007944762706757</v>
       </c>
       <c r="W60" t="n">
-        <v>0.03339226543903351</v>
+        <v>5.312462963047437e-05</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3869531154632568</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.3993113338947296</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01074487995356321</v>
+        <v>0.0001527255662949756</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9031689167022705</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.8632677793502808</v>
       </c>
       <c r="W62" t="n">
-        <v>0.005400450900197029</v>
+        <v>0.001592100714333355</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.867124080657959</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.5115280151367188</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1423562914133072</v>
+        <v>0.1264485567808151</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.871312141418457</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.3993421196937561</v>
       </c>
       <c r="W64" t="n">
-        <v>0.08708585798740387</v>
+        <v>0.2227557003498077</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8711349964141846</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5188158750534058</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2491330057382584</v>
+        <v>0.1241287663578987</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8629679679870605</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.8732433915138245</v>
       </c>
       <c r="W66" t="n">
-        <v>0.07195546478033066</v>
+        <v>0.0001055843313224614</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8693859577178955</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.4017367959022522</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2040733098983765</v>
+        <v>0.2186957448720932</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8999099731445312</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.51465904712677</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1399827152490616</v>
+        <v>0.1484182775020599</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8704478740692139</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.401674747467041</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1333939731121063</v>
+        <v>0.219748243689537</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.864084005355835</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.3997239768505096</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1151306629180908</v>
+        <v>0.2156302332878113</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9124557971954346</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.5209690928459167</v>
       </c>
       <c r="W71" t="n">
-        <v>0.06639692187309265</v>
+        <v>0.1532618403434753</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8753039836883545</v>
       </c>
       <c r="V72" t="n">
-        <v>0.802345335483551</v>
+        <v>0.8835868239402771</v>
       </c>
       <c r="W72" t="n">
-        <v>0.005322964396327734</v>
+        <v>6.860544090159237e-05</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8708779811859131</v>
       </c>
       <c r="V73" t="n">
-        <v>0.802417516708374</v>
+        <v>0.8759535551071167</v>
       </c>
       <c r="W73" t="n">
-        <v>0.004686835221946239</v>
+        <v>2.576145016064402e-05</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8659369945526123</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.3998195827007294</v>
       </c>
       <c r="W74" t="n">
-        <v>0.04519764333963394</v>
+        <v>0.2172654420137405</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.929757833480835</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.5290284156799316</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1810493618249893</v>
+        <v>0.1605840623378754</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8674721717834473</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.5293746590614319</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2023308277130127</v>
+        <v>0.1143099293112755</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8770549297332764</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.516236424446106</v>
       </c>
       <c r="W77" t="n">
-        <v>0.04963934421539307</v>
+        <v>0.1301899999380112</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8632938861846924</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8740513920783997</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1388082504272461</v>
+        <v>0.0001157239312306046</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9274520874023438</v>
       </c>
       <c r="V79" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.4003993272781372</v>
       </c>
       <c r="W79" t="n">
-        <v>0.01508140470832586</v>
+        <v>0.2777846157550812</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8729979991912842</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.5327612161636353</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1212452873587608</v>
+        <v>0.1157610714435577</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.85984206199646</v>
       </c>
       <c r="V81" t="n">
-        <v>0.405481219291687</v>
+        <v>0.8726932406425476</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2064437717199326</v>
+        <v>0.000165152785484679</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5471329689025879</v>
       </c>
       <c r="V82" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8813679218292236</v>
       </c>
       <c r="W82" t="n">
-        <v>0.06630799919366837</v>
+        <v>0.1117130070924759</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5504119396209717</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.5051771998405457</v>
       </c>
       <c r="W83" t="n">
-        <v>0.001036170870065689</v>
+        <v>0.00204618158750236</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5220460891723633</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.5324554443359375</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0293410737067461</v>
+        <v>0.0001083546740119345</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5191888809204102</v>
       </c>
       <c r="V85" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.400383323431015</v>
       </c>
       <c r="W85" t="n">
-        <v>0.01799538172781467</v>
+        <v>0.01411476079374552</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.516855001449585</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.3993059694766998</v>
       </c>
       <c r="W86" t="n">
-        <v>0.02759388089179993</v>
+        <v>0.01381777506321669</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5128409862518311</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.3997937738895416</v>
       </c>
       <c r="W87" t="n">
-        <v>0.004869813099503517</v>
+        <v>0.01277967263013124</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5156819820404053</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.8686786890029907</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0006203196826390922</v>
+        <v>0.1246066763997078</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5748410224914551</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.4009086787700653</v>
       </c>
       <c r="W89" t="n">
-        <v>0.04144033417105675</v>
+        <v>0.03025246039032936</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5271370410919189</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.5231412649154663</v>
       </c>
       <c r="W90" t="n">
-        <v>0.03072424046695232</v>
+        <v>1.596622678334825e-05</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5203711986541748</v>
       </c>
       <c r="V91" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.4000147879123688</v>
       </c>
       <c r="W91" t="n">
-        <v>0.09842860698699951</v>
+        <v>0.01448566559702158</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5190219879150391</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.5188985466957092</v>
       </c>
       <c r="W92" t="n">
-        <v>0.03021244518458843</v>
+        <v>1.523773462963618e-08</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5214078426361084</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.5208561420440674</v>
       </c>
       <c r="W93" t="n">
-        <v>1.933181738422718e-05</v>
+        <v>3.043735432584072e-07</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5681281089782715</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.4009351432323456</v>
       </c>
       <c r="W94" t="n">
-        <v>0.001862566219642758</v>
+        <v>0.02795348688960075</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5172469615936279</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.5263540744781494</v>
       </c>
       <c r="W95" t="n">
-        <v>0.009923440404236317</v>
+        <v>8.293950668303296e-05</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5179810523986816</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.8710706233978271</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0005117651890031993</v>
+        <v>0.1246722415089607</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5168149471282959</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.8890795111656189</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0001205527660204098</v>
+        <v>0.1385809034109116</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5179400444030762</v>
       </c>
       <c r="V98" t="n">
-        <v>0.490907609462738</v>
+        <v>0.4016221463680267</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0007307525374926627</v>
+        <v>0.01352985296398401</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5192270278930664</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.4017222821712494</v>
       </c>
       <c r="W99" t="n">
-        <v>0.003069584257900715</v>
+        <v>0.01380736567080021</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5208740234375</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.8715258240699768</v>
       </c>
       <c r="W100" t="n">
-        <v>0.005449497140944004</v>
+        <v>0.1229566857218742</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5196549892425537</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.516029953956604</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01777933351695538</v>
+        <v>1.314088058279594e-05</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4046330451965332</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.4003796279430389</v>
       </c>
       <c r="W102" t="n">
-        <v>0.0001700347638688982</v>
+        <v>1.809155764931347e-05</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4121971130371094</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.5303481221199036</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0573507659137249</v>
+        <v>0.01395966112613678</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.415647029876709</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.4018680155277252</v>
       </c>
       <c r="W104" t="n">
-        <v>0.05677162110805511</v>
+        <v>0.000189861239050515</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4030430316925049</v>
       </c>
       <c r="V105" t="n">
-        <v>0.503772497177124</v>
+        <v>0.52528315782547</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01014642510563135</v>
+        <v>0.01494264882057905</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3884580135345459</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.400288313627243</v>
       </c>
       <c r="W106" t="n">
-        <v>0.005680711008608341</v>
+        <v>0.0001399559987476096</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.387423038482666</v>
       </c>
       <c r="V107" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8720245361328125</v>
       </c>
       <c r="W107" t="n">
-        <v>0.04129459336400032</v>
+        <v>0.234838604927063</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3886420726776123</v>
       </c>
       <c r="V108" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.8734114766120911</v>
       </c>
       <c r="W108" t="n">
-        <v>0.1715877205133438</v>
+        <v>0.2350013703107834</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3896229267120361</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.8854150176048279</v>
       </c>
       <c r="W109" t="n">
-        <v>0.005167880095541477</v>
+        <v>0.24580979347229</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3921909332275391</v>
       </c>
       <c r="V110" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.4003930389881134</v>
       </c>
       <c r="W110" t="n">
-        <v>0.1681661605834961</v>
+        <v>6.727453728672117e-05</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3924579620361328</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.5095604062080383</v>
       </c>
       <c r="W111" t="n">
-        <v>0.06810306757688522</v>
+        <v>0.01371298264712095</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3983521461486816</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.3998182713985443</v>
       </c>
       <c r="W112" t="n">
-        <v>0.06570929288864136</v>
+        <v>2.149523197658709e-06</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3916831016540527</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.8675127625465393</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06822479516267776</v>
+        <v>0.2264138609170914</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3909280300140381</v>
       </c>
       <c r="V114" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.5139061808586121</v>
       </c>
       <c r="W114" t="n">
-        <v>0.1686414182186127</v>
+        <v>0.01512362528592348</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.39227294921875</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.8573876023292542</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0001638455432839692</v>
+        <v>0.2163316458463669</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3921370506286621</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.4000927805900574</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01754318736493587</v>
+        <v>6.329364259727299e-05</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3936600685119629</v>
       </c>
       <c r="V117" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.523836612701416</v>
       </c>
       <c r="W117" t="n">
-        <v>0.3388102650642395</v>
+        <v>0.01694593206048012</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4128909111022949</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.886525571346283</v>
       </c>
       <c r="W118" t="n">
-        <v>0.07829698175191879</v>
+        <v>0.2243297845125198</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3946609497070312</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.8759766221046448</v>
       </c>
       <c r="W119" t="n">
-        <v>0.01685846038162708</v>
+        <v>0.231664776802063</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.401543140411377</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.4003705680370331</v>
       </c>
       <c r="W120" t="n">
-        <v>0.002469446510076523</v>
+        <v>1.374926000607957e-06</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3936769962310791</v>
       </c>
       <c r="V121" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.4016763269901276</v>
       </c>
       <c r="W121" t="n">
-        <v>0.3385508060455322</v>
+        <v>6.398928962880746e-05</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8793509006500244</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.3993483185768127</v>
       </c>
       <c r="W122" t="n">
-        <v>0.05086462572216988</v>
+        <v>0.230402484536171</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9259688854217529</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.5328888893127441</v>
       </c>
       <c r="W123" t="n">
-        <v>0.07423340529203415</v>
+        <v>0.154511883854866</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8711721897125244</v>
       </c>
       <c r="V124" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.8850390315055847</v>
       </c>
       <c r="W124" t="n">
-        <v>0.00499915424734354</v>
+        <v>0.0001922892988659441</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8734490871429443</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8894884586334229</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1472348272800446</v>
+        <v>0.0002572614466771483</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8904759883880615</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.5346768498420715</v>
       </c>
       <c r="W126" t="n">
-        <v>0.03664376959204674</v>
+        <v>0.1265930235385895</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9335901737213135</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.4002573490142822</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1200666129589081</v>
+        <v>0.2844439148902893</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8639388084411621</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.4009031355381012</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1290554702281952</v>
+        <v>0.2144020348787308</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8650038242340088</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.8812199831008911</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1566639542579651</v>
+        <v>0.0002629638183861971</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8652679920196533</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.3993147015571594</v>
       </c>
       <c r="W130" t="n">
-        <v>0.02757064811885357</v>
+        <v>0.2171124666929245</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9202108383178711</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8681499361991882</v>
       </c>
       <c r="W131" t="n">
-        <v>0.3008225560188293</v>
+        <v>0.002710337517783046</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8740789890289307</v>
       </c>
       <c r="V132" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.8801659345626831</v>
       </c>
       <c r="W132" t="n">
-        <v>0.001288219238631427</v>
+        <v>3.705090421135537e-05</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8861930370330811</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.8842464089393616</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1563092917203903</v>
+        <v>3.789361016970361e-06</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8621330261230469</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.5268172025680542</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1382496654987335</v>
+        <v>0.1124367043375969</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8796448707580566</v>
       </c>
       <c r="V135" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.3993158936500549</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2578157186508179</v>
+        <v>0.2307159304618835</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8672890663146973</v>
       </c>
       <c r="V136" t="n">
-        <v>0.975181519985199</v>
+        <v>0.5172716379165649</v>
       </c>
       <c r="W136" t="n">
-        <v>0.01164078153669834</v>
+        <v>0.122512198984623</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8677690029144287</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.3993386030197144</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2395283728837967</v>
+        <v>0.2194270342588425</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8679239749908447</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.4000116884708405</v>
       </c>
       <c r="W138" t="n">
-        <v>0.163296565413475</v>
+        <v>0.2189419120550156</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8858239650726318</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.5248564481735229</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1783699244260788</v>
+        <v>0.1302975416183472</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8673989772796631</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8848501443862915</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1421147733926773</v>
+        <v>0.0003045432385988533</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8746049404144287</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.3993287086486816</v>
       </c>
       <c r="W141" t="n">
-        <v>0.08252179622650146</v>
+        <v>0.2258874922990799</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5367920398712158</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.5241230726242065</v>
       </c>
       <c r="W142" t="n">
-        <v>0.002153113018721342</v>
+        <v>0.0001605027355253696</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5399448871612549</v>
       </c>
       <c r="V143" t="n">
-        <v>0.35074183344841</v>
+        <v>0.4002478420734406</v>
       </c>
       <c r="W143" t="n">
-        <v>0.03579779714345932</v>
+        <v>0.0195152647793293</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5228891372680664</v>
       </c>
       <c r="V144" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.4016253054141998</v>
       </c>
       <c r="W144" t="n">
-        <v>0.07749086618423462</v>
+        <v>0.01470491662621498</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5181410312652588</v>
       </c>
       <c r="V145" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.400377094745636</v>
       </c>
       <c r="W145" t="n">
-        <v>0.09974993765354156</v>
+        <v>0.01386834494769573</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5236160755157471</v>
       </c>
       <c r="V146" t="n">
-        <v>0.576347291469574</v>
+        <v>0.5182480216026306</v>
       </c>
       <c r="W146" t="n">
-        <v>0.002780581125989556</v>
+        <v>2.881600266846363e-05</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5291709899902344</v>
       </c>
       <c r="V147" t="n">
-        <v>0.97564297914505</v>
+        <v>0.4003556668758392</v>
       </c>
       <c r="W147" t="n">
-        <v>0.1993372440338135</v>
+        <v>0.01659338735044003</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5758728981018066</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.5300209522247314</v>
       </c>
       <c r="W148" t="n">
-        <v>0.002630869392305613</v>
+        <v>0.002102400874719024</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5185301303863525</v>
       </c>
       <c r="V149" t="n">
-        <v>0.699232816696167</v>
+        <v>0.4008230566978455</v>
       </c>
       <c r="W149" t="n">
-        <v>0.03265346214175224</v>
+        <v>0.01385495532304049</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5424740314483643</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.8702971935272217</v>
       </c>
       <c r="W150" t="n">
-        <v>0.001125384122133255</v>
+        <v>0.1074680238962173</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5694489479064941</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.4016680121421814</v>
       </c>
       <c r="W151" t="n">
-        <v>0.001960564637556672</v>
+        <v>0.02815044298768044</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5679459571838379</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.3997108638286591</v>
       </c>
       <c r="W152" t="n">
-        <v>0.000202315190108493</v>
+        <v>0.02830304577946663</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.6160671710968018</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.3993212878704071</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01567181013524532</v>
+        <v>0.04697877913713455</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5219650268554688</v>
       </c>
       <c r="V154" t="n">
-        <v>0.838257908821106</v>
+        <v>0.8706425428390503</v>
       </c>
       <c r="W154" t="n">
-        <v>0.1000411882996559</v>
+        <v>0.1215760111808777</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5227479934692383</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.5305182337760925</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02958356589078903</v>
+        <v>6.037663479219191e-05</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5243408679962158</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.5092065930366516</v>
       </c>
       <c r="W156" t="n">
-        <v>0.003384500276297331</v>
+        <v>0.0002290462725795805</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5212581157684326</v>
       </c>
       <c r="V157" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.4004177749156952</v>
       </c>
       <c r="W157" t="n">
-        <v>0.07922223955392838</v>
+        <v>0.01460238825529814</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5190019607543945</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.8650840520858765</v>
       </c>
       <c r="W158" t="n">
-        <v>0.07923982292413712</v>
+        <v>0.1197728142142296</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5227711200714111</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.5273792147636414</v>
       </c>
       <c r="W159" t="n">
-        <v>0.002866977360099554</v>
+        <v>2.123453668900765e-05</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5196609497070312</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.8750845789909363</v>
       </c>
       <c r="W160" t="n">
-        <v>0.003120610723271966</v>
+        <v>0.1263259500265121</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5215420722961426</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.8735007643699646</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01081412844359875</v>
+        <v>0.1238749176263809</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3953540325164795</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.507739782333374</v>
       </c>
       <c r="W162" t="n">
-        <v>0.009037490002810955</v>
+        <v>0.01263055671006441</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3877170085906982</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.3993216753005981</v>
       </c>
       <c r="W163" t="n">
-        <v>0.03555997833609581</v>
+        <v>0.0001346682838629931</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4533250331878662</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.5292640924453735</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0001100863810279407</v>
+        <v>0.005766740534454584</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3950901031494141</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.4008138477802277</v>
       </c>
       <c r="W165" t="n">
-        <v>0.01198569312691689</v>
+        <v>3.276125426054932e-05</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3940849304199219</v>
       </c>
       <c r="V166" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.5358544588088989</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1932834684848785</v>
+        <v>0.0200985986739397</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3941659927368164</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5177310705184937</v>
       </c>
       <c r="W167" t="n">
-        <v>0.03868860751390457</v>
+        <v>0.01526832859963179</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3902099132537842</v>
       </c>
       <c r="V168" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.878984808921814</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0001405560178682208</v>
+        <v>0.238900899887085</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3931648731231689</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.8619503974914551</v>
       </c>
       <c r="W169" t="n">
-        <v>0.002128284890204668</v>
+        <v>0.2197598665952682</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4191799163818359</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.3993342816829681</v>
       </c>
       <c r="W170" t="n">
-        <v>0.07843036204576492</v>
+        <v>0.0003938492154702544</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3926129341125488</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.5290367603302002</v>
       </c>
       <c r="W171" t="n">
-        <v>0.06848428398370743</v>
+        <v>0.01861146092414856</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3941249847412109</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.8735339641571045</v>
       </c>
       <c r="W172" t="n">
-        <v>0.03316158056259155</v>
+        <v>0.2298329621553421</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3931169509887695</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8724760413169861</v>
       </c>
       <c r="W173" t="n">
-        <v>0.005006591323763132</v>
+        <v>0.229785144329071</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4061641693115234</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.4017374813556671</v>
       </c>
       <c r="W174" t="n">
-        <v>0.003286313498392701</v>
+        <v>1.959556539077312e-05</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3932449817657471</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.4002808928489685</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01724397204816341</v>
+        <v>4.950404400005937e-05</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3951010704040527</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8742985129356384</v>
       </c>
       <c r="W176" t="n">
-        <v>0.004675999283790588</v>
+        <v>0.2296301871538162</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4156129360198975</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.5139726400375366</v>
       </c>
       <c r="W177" t="n">
-        <v>0.02781612426042557</v>
+        <v>0.009674631059169769</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3956329822540283</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5205192565917969</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01676235534250736</v>
+        <v>0.01559658162295818</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3952579498291016</v>
       </c>
       <c r="V179" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.886180579662323</v>
       </c>
       <c r="W179" t="n">
-        <v>0.3367618918418884</v>
+        <v>0.2410050332546234</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3933358192443848</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.8660700917243958</v>
       </c>
       <c r="W180" t="n">
-        <v>0.001810522633604705</v>
+        <v>0.223477691411972</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4001789093017578</v>
       </c>
       <c r="V181" t="n">
-        <v>0.417630136013031</v>
+        <v>0.8755650520324707</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0003045453049708158</v>
+        <v>0.2259919792413712</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9346530437469482</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.3992899060249329</v>
       </c>
       <c r="W182" t="n">
-        <v>0.05541766062378883</v>
+        <v>0.2866137027740479</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8707888126373291</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.4002851545810699</v>
       </c>
       <c r="W183" t="n">
-        <v>0.04705509543418884</v>
+        <v>0.2213736921548843</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8717749118804932</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.3997188210487366</v>
       </c>
       <c r="W184" t="n">
-        <v>0.04750185832381248</v>
+        <v>0.2228369563817978</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8786690235137939</v>
       </c>
       <c r="V185" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.891808032989502</v>
       </c>
       <c r="W185" t="n">
-        <v>0.001987853087484837</v>
+        <v>0.000172633575857617</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9325599670410156</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.8702958822250366</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2652734220027924</v>
+        <v>0.003876816248521209</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8882260322570801</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.3991970121860504</v>
       </c>
       <c r="W187" t="n">
-        <v>0.09747312963008881</v>
+        <v>0.2391493767499924</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8728690147399902</v>
       </c>
       <c r="V188" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.5325531363487244</v>
       </c>
       <c r="W188" t="n">
-        <v>0.01047443598508835</v>
+        <v>0.1158148944377899</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.871528148651123</v>
       </c>
       <c r="V189" t="n">
-        <v>0.708076536655426</v>
+        <v>0.3993273377418518</v>
       </c>
       <c r="W189" t="n">
-        <v>0.02671642974019051</v>
+        <v>0.2229736000299454</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9353799819946289</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.5266758799552917</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1976597905158997</v>
+        <v>0.1670390367507935</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>1.139770030975342</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.4004431068897247</v>
       </c>
       <c r="W191" t="n">
-        <v>0.4023652076721191</v>
+        <v>0.546604335308075</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8851068019866943</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.5203524827957153</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2185380607843399</v>
+        <v>0.1330457180738449</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8734078407287598</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.8684658408164978</v>
       </c>
       <c r="W193" t="n">
-        <v>0.04957171902060509</v>
+        <v>2.442336335661821e-05</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8867008686065674</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.5270400047302246</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1466045081615448</v>
+        <v>0.1293559372425079</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.871157169342041</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.5204128623008728</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1349900662899017</v>
+        <v>0.1230215653777122</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8626179695129395</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.4003796577453613</v>
       </c>
       <c r="W196" t="n">
-        <v>0.04389320313930511</v>
+        <v>0.2136642634868622</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8710041046142578</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.5077201128005981</v>
       </c>
       <c r="W197" t="n">
-        <v>0.004981234204024076</v>
+        <v>0.1319752633571625</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8685259819030762</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.5680049657821655</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1181375905871391</v>
+        <v>0.09031288325786591</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8737170696258545</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.520564079284668</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2773923873901367</v>
+        <v>0.1247170343995094</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8619430065155029</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.5318074226379395</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1378140151500702</v>
+        <v>0.1089895069599152</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9144899845123291</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.8795365691184998</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2051835507154465</v>
+        <v>0.001221741200424731</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5230188369750977</v>
       </c>
       <c r="V202" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.8802955746650696</v>
       </c>
       <c r="W202" t="n">
-        <v>0.2048242092132568</v>
+        <v>0.1276466697454453</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5198538303375244</v>
       </c>
       <c r="V203" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.8664650321006775</v>
       </c>
       <c r="W203" t="n">
-        <v>0.02185744792222977</v>
+        <v>0.1201393231749535</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5238921642303467</v>
       </c>
       <c r="V204" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.5083684325218201</v>
       </c>
       <c r="W204" t="n">
-        <v>0.09812568128108978</v>
+        <v>0.0002409862499916926</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5215418338775635</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.4008119106292725</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01079682353883982</v>
+        <v>0.01457571424543858</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5227420330047607</v>
       </c>
       <c r="V206" t="n">
-        <v>0.417652815580368</v>
+        <v>0.5204090476036072</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01104374323040247</v>
+        <v>5.442821020551492e-06</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5245201587677002</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5287485718727112</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02833250537514687</v>
+        <v>1.787947803677525e-05</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5185220241546631</v>
       </c>
       <c r="V208" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.5046087503433228</v>
       </c>
       <c r="W208" t="n">
-        <v>0.02937822975218296</v>
+        <v>0.0001935791951837018</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5172538757324219</v>
       </c>
       <c r="V209" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.8731004595756531</v>
       </c>
       <c r="W209" t="n">
-        <v>0.02772026509046555</v>
+        <v>0.1266267895698547</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5207748413085938</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.4008207321166992</v>
       </c>
       <c r="W210" t="n">
-        <v>0.003557507880032063</v>
+        <v>0.01438898872584105</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5242879390716553</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.4000904262065887</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01140633318573236</v>
+        <v>0.01542502176016569</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5765249729156494</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.5248417258262634</v>
       </c>
       <c r="W212" t="n">
-        <v>0.02524607256054878</v>
+        <v>0.002671157941222191</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.525475025177002</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.50522381067276</v>
       </c>
       <c r="W213" t="n">
-        <v>0.0163602102547884</v>
+        <v>0.0004101116792298853</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5259308815002441</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.3997200429439545</v>
       </c>
       <c r="W214" t="n">
-        <v>0.001255940645933151</v>
+        <v>0.01592917554080486</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5243239402770996</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.5309720039367676</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01140171848237514</v>
+        <v>4.419674951350316e-05</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5261631011962891</v>
       </c>
       <c r="V216" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.4003950655460358</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0330926701426506</v>
+        <v>0.01581759937107563</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5653340816497803</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.3993273675441742</v>
       </c>
       <c r="W217" t="n">
-        <v>0.03116492554545403</v>
+        <v>0.02755822986364365</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5235130786895752</v>
       </c>
       <c r="V218" t="n">
-        <v>0.417663037776947</v>
+        <v>0.8857272267341614</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01120423153042793</v>
+        <v>0.1311990916728973</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5250999927520752</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.3993013203144073</v>
       </c>
       <c r="W219" t="n">
-        <v>0.001207308727316558</v>
+        <v>0.015825305134058</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5225710868835449</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.3993492424488068</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0003280403616372496</v>
+        <v>0.01518362294882536</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5214908123016357</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.876318633556366</v>
       </c>
       <c r="W221" t="n">
-        <v>0.003603455843403935</v>
+        <v>0.1259027868509293</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3889279365539551</v>
       </c>
       <c r="V222" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.5191664695739746</v>
       </c>
       <c r="W222" t="n">
-        <v>0.1715546399354935</v>
+        <v>0.0169620756059885</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.413477897644043</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.5149149894714355</v>
       </c>
       <c r="W223" t="n">
-        <v>0.03223668038845062</v>
+        <v>0.01028948370367289</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3978509902954102</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.8583431839942932</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01150728855282068</v>
+        <v>0.2120530605316162</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3941080570220947</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.873959481716156</v>
       </c>
       <c r="W225" t="n">
-        <v>0.0005549508496187627</v>
+        <v>0.2302573919296265</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.396481990814209</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.5287485718727112</v>
       </c>
       <c r="W226" t="n">
-        <v>0.01167413033545017</v>
+        <v>0.0174944493919611</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3980131149291992</v>
       </c>
       <c r="V227" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.5262370109558105</v>
       </c>
       <c r="W227" t="n">
-        <v>0.3341605067253113</v>
+        <v>0.01644136756658554</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3982460498809814</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.4003626704216003</v>
       </c>
       <c r="W228" t="n">
-        <v>0.06466739624738693</v>
+        <v>4.480082679947373e-06</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.449660062789917</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.5228269100189209</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1227827742695808</v>
+        <v>0.005353387445211411</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3959939479827881</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.5193176865577698</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0004653869254980236</v>
+        <v>0.01520874444395304</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3977630138397217</v>
       </c>
       <c r="V231" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.5181638598442078</v>
       </c>
       <c r="W231" t="n">
-        <v>0.1636939942836761</v>
+        <v>0.01449636369943619</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3968420028686523</v>
       </c>
       <c r="V232" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.8728229999542236</v>
       </c>
       <c r="W232" t="n">
-        <v>0.3354906141757965</v>
+        <v>0.2265579104423523</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3970139026641846</v>
       </c>
       <c r="V233" t="n">
-        <v>0.490833193063736</v>
+        <v>0.3993373215198517</v>
       </c>
       <c r="W233" t="n">
-        <v>0.008802059106528759</v>
+        <v>5.398275334300706e-06</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3987858295440674</v>
       </c>
       <c r="V234" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.8664746880531311</v>
       </c>
       <c r="W234" t="n">
-        <v>0.1641850620508194</v>
+        <v>0.2187328636646271</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4533138275146484</v>
       </c>
       <c r="V235" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.8728263974189758</v>
       </c>
       <c r="W235" t="n">
-        <v>0.006620319560170174</v>
+        <v>0.1759907901287079</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.399367094039917</v>
       </c>
       <c r="V236" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.8699052333831787</v>
       </c>
       <c r="W236" t="n">
-        <v>0.002363485749810934</v>
+        <v>0.2214061468839645</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3943650722503662</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8668381571769714</v>
       </c>
       <c r="W237" t="n">
-        <v>0.06694947928190231</v>
+        <v>0.2232308089733124</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.391916036605835</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.4002315700054169</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01281066611409187</v>
+        <v>6.91480963723734e-05</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3918170928955078</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.5205938816070557</v>
       </c>
       <c r="W239" t="n">
-        <v>0.005988919176161289</v>
+        <v>0.01658346131443977</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3881440162658691</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.5204940438270569</v>
       </c>
       <c r="W240" t="n">
-        <v>0.09676912426948547</v>
+        <v>0.01751652918756008</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4428050518035889</v>
       </c>
       <c r="V241" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.5223493576049805</v>
       </c>
       <c r="W241" t="n">
-        <v>0.1589200496673584</v>
+        <v>0.006327296607196331</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8850870132446289</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.4004137217998505</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2567844390869141</v>
+        <v>0.2349081933498383</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8798251152038574</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.5305340886116028</v>
       </c>
       <c r="W243" t="n">
-        <v>0.05115953087806702</v>
+        <v>0.1220042183995247</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8727951049804688</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.8804497718811035</v>
       </c>
       <c r="W244" t="n">
-        <v>0.04868087917566299</v>
+        <v>5.859392695128918e-05</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9352459907531738</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.8684468865394592</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2679164111614227</v>
+        <v>0.004462120123207569</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8779680728912354</v>
       </c>
       <c r="V246" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.8891201615333557</v>
       </c>
       <c r="W246" t="n">
-        <v>0.009527443908154964</v>
+        <v>0.0001243690785486251</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8827321529388428</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.5294163227081299</v>
       </c>
       <c r="W247" t="n">
-        <v>0.05260272324085236</v>
+        <v>0.1248320788145065</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8742949962615967</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.5304292440414429</v>
       </c>
       <c r="W248" t="n">
-        <v>0.0353379137814045</v>
+        <v>0.1182436570525169</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9502129554748535</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.400020569562912</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1999398171901703</v>
+        <v>0.3027116358280182</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8725888729095459</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5308061242103577</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2333163022994995</v>
+        <v>0.116815447807312</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8868601322174072</v>
       </c>
       <c r="V251" t="n">
-        <v>0.417653352022171</v>
+        <v>0.3993077576160431</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2201550006866455</v>
+        <v>0.2377073168754578</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8719358444213867</v>
       </c>
       <c r="V252" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.8968878388404846</v>
       </c>
       <c r="W252" t="n">
-        <v>0.00178806867916137</v>
+        <v>0.0006226020050235093</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9654839038848877</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.3993032276630402</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1942126452922821</v>
+        <v>0.3205606043338776</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>1.206784963607788</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.8663614392280579</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1651163101196289</v>
+        <v>0.1158881783485413</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8815159797668457</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.510226845741272</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1416904628276825</v>
+        <v>0.1378556191921234</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9038701057434082</v>
       </c>
       <c r="V256" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.8620555996894836</v>
       </c>
       <c r="W256" t="n">
-        <v>0.005086873658001423</v>
+        <v>0.001748452894389629</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8837211132049561</v>
       </c>
       <c r="V257" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.4008229970932007</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2555085122585297</v>
+        <v>0.2331905961036682</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8982620239257812</v>
       </c>
       <c r="V258" t="n">
-        <v>0.505433976650238</v>
+        <v>0.3993308246135712</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1543138772249222</v>
+        <v>0.248932346701622</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8745191097259521</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.3993383646011353</v>
       </c>
       <c r="W259" t="n">
-        <v>0.04848796129226685</v>
+        <v>0.2257967442274094</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8700950145721436</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.8703718185424805</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1332800537347794</v>
+        <v>7.66204379942792e-08</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8766560554504395</v>
       </c>
       <c r="V261" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.873963475227356</v>
       </c>
       <c r="W261" t="n">
-        <v>0.009785836562514305</v>
+        <v>7.249988357216353e-06</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5326499938964844</v>
       </c>
       <c r="V262" t="n">
-        <v>0.371780127286911</v>
+        <v>0.4007935225963593</v>
       </c>
       <c r="W262" t="n">
-        <v>0.02587911486625671</v>
+        <v>0.01738612912595272</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5400080680847168</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.8694595098495483</v>
       </c>
       <c r="W263" t="n">
-        <v>0.002406850224360824</v>
+        <v>0.1085382550954819</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5232799053192139</v>
       </c>
       <c r="V264" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.5285049080848694</v>
       </c>
       <c r="W264" t="n">
-        <v>0.02290968038141727</v>
+        <v>2.730065352807287e-05</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5238220691680908</v>
       </c>
       <c r="V265" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.8691630959510803</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0340111069381237</v>
+        <v>0.1192604228854179</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5251779556274414</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.878447949886322</v>
       </c>
       <c r="W266" t="n">
-        <v>1.330765940110723e-06</v>
+        <v>0.1247996911406517</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5320019721984863</v>
       </c>
       <c r="V267" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8723581433296204</v>
       </c>
       <c r="W267" t="n">
-        <v>0.07291318476200104</v>
+        <v>0.1158423200249672</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5274009704589844</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8672160506248474</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01591523922979832</v>
+        <v>0.1154742911458015</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5261731147766113</v>
       </c>
       <c r="V269" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.5165947079658508</v>
       </c>
       <c r="W269" t="n">
-        <v>0.03307677805423737</v>
+        <v>9.17458746698685e-05</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.523406982421875</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8854326009750366</v>
       </c>
       <c r="W270" t="n">
-        <v>7.924606507003773e-06</v>
+        <v>0.1310625523328781</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.524493932723999</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.8688530921936035</v>
       </c>
       <c r="W271" t="n">
-        <v>0.003972995560616255</v>
+        <v>0.1185832321643829</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5320031642913818</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.8723490238189697</v>
       </c>
       <c r="W272" t="n">
-        <v>0.0007232793723233044</v>
+        <v>0.1158353015780449</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5262110233306885</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.4007877707481384</v>
       </c>
       <c r="W273" t="n">
-        <v>0.02562252059578896</v>
+        <v>0.01573099195957184</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5276648998260498</v>
       </c>
       <c r="V274" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.8857629299163818</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02420119941234589</v>
+        <v>0.1282341927289963</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5256328582763672</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.4000985026359558</v>
       </c>
       <c r="W275" t="n">
-        <v>0.03057793714106083</v>
+        <v>0.01575887389481068</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5699729919433594</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.3997989892959595</v>
       </c>
       <c r="W276" t="n">
-        <v>0.006292175035923719</v>
+        <v>0.02895919047296047</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5278642177581787</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.5297369956970215</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01214496977627277</v>
+        <v>3.507297151372768e-06</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5412349700927734</v>
       </c>
       <c r="V278" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.4004082977771759</v>
       </c>
       <c r="W278" t="n">
-        <v>0.02635711617767811</v>
+        <v>0.01983215101063251</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5354330539703369</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.872883141040802</v>
       </c>
       <c r="W279" t="n">
-        <v>0.00218994589522481</v>
+        <v>0.1138725578784943</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5327210426330566</v>
       </c>
       <c r="V280" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.8758172392845154</v>
       </c>
       <c r="W280" t="n">
-        <v>0.03311329707503319</v>
+        <v>0.1177150011062622</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5902218818664551</v>
       </c>
       <c r="V281" t="n">
-        <v>0.801636278629303</v>
+        <v>0.8781810998916626</v>
       </c>
       <c r="W281" t="n">
-        <v>0.04469604790210724</v>
+        <v>0.08292051404714584</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4234740734100342</v>
       </c>
       <c r="V282" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.8764801025390625</v>
       </c>
       <c r="W282" t="n">
-        <v>0.145354300737381</v>
+        <v>0.2052144557237625</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4039638042449951</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.5287323594093323</v>
       </c>
       <c r="W283" t="n">
-        <v>0.002832124475389719</v>
+        <v>0.01556719280779362</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4023079872131348</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8682993054389954</v>
       </c>
       <c r="W284" t="n">
-        <v>0.01040188409388065</v>
+        <v>0.2171479016542435</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4022848606109619</v>
       </c>
       <c r="V285" t="n">
-        <v>0.372467577457428</v>
+        <v>0.8683514595031738</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0008890703902579844</v>
+        <v>0.2172180712223053</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4012451171875</v>
       </c>
       <c r="V286" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.3997980654239655</v>
       </c>
       <c r="W286" t="n">
-        <v>0.08494440466165543</v>
+        <v>2.093958755722269e-06</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4587430953979492</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.5292614102363586</v>
       </c>
       <c r="W287" t="n">
-        <v>0.1409573405981064</v>
+        <v>0.00497283274307847</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4033792018890381</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5275013446807861</v>
       </c>
       <c r="W288" t="n">
-        <v>0.06257244199514389</v>
+        <v>0.01540630590170622</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4052109718322754</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.4009188413619995</v>
       </c>
       <c r="W289" t="n">
-        <v>0.0001541771634947509</v>
+        <v>1.842238452809397e-05</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3977100849151611</v>
       </c>
       <c r="V290" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.5289756655693054</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0006559148314408958</v>
+        <v>0.01723065227270126</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4016931056976318</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.5334451198577881</v>
       </c>
       <c r="W291" t="n">
-        <v>0.06355749815702438</v>
+        <v>0.01735859364271164</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4048399925231934</v>
       </c>
       <c r="V292" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.530122697353363</v>
       </c>
       <c r="W292" t="n">
-        <v>0.000727372826077044</v>
+        <v>0.01569575630128384</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.453355073928833</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.8884652853012085</v>
       </c>
       <c r="W293" t="n">
-        <v>0.01507696881890297</v>
+        <v>0.1893208920955658</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3977370262145996</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.4019784927368164</v>
       </c>
       <c r="W294" t="n">
-        <v>0.01616856269538403</v>
+        <v>1.799003803171217e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3999819755554199</v>
       </c>
       <c r="V295" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.8695394396781921</v>
       </c>
       <c r="W295" t="n">
-        <v>0.1924222558736801</v>
+        <v>0.2204842120409012</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.404771089553833</v>
       </c>
       <c r="V296" t="n">
-        <v>0.490370512008667</v>
+        <v>0.4016574323177338</v>
       </c>
       <c r="W296" t="n">
-        <v>0.007327260915189981</v>
+        <v>9.694861546449829e-06</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4034111499786377</v>
       </c>
       <c r="V297" t="n">
-        <v>0.975210964679718</v>
+        <v>0.5323336124420166</v>
       </c>
       <c r="W297" t="n">
-        <v>0.3269550204277039</v>
+        <v>0.01662100106477737</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4014849662780762</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.4004096686840057</v>
       </c>
       <c r="W298" t="n">
-        <v>0.002574058016762137</v>
+        <v>1.156264943347196e-06</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4307370185852051</v>
       </c>
       <c r="V299" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.3993323743343353</v>
       </c>
       <c r="W299" t="n">
-        <v>0.006393771152943373</v>
+        <v>0.000986251630820334</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.402601957321167</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.5290428400039673</v>
       </c>
       <c r="W300" t="n">
-        <v>0.003707536263391376</v>
+        <v>0.01598729752004147</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4048280715942383</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.4000031352043152</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0001644595322431996</v>
+        <v>2.328001028217841e-05</v>
       </c>
     </row>
     <row r="302" spans="1:23">
